--- a/data/trans_camb/BARTHEL_R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R3-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>5.279085433358406</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.612766750338604</v>
+        <v>5.612766750338602</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.1994439617817229</v>
@@ -655,7 +655,7 @@
         <v>9.496362095154431</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>5.11463338774859</v>
+        <v>5.114633387748594</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.314453542703716</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.043783674258415</v>
+        <v>-6.753826076348436</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.815478034980382</v>
+        <v>-5.599633064806502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.488349339419974</v>
+        <v>-4.524550211984265</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-18.27035301655269</v>
+        <v>-17.1759359064078</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.300467060669625</v>
+        <v>-9.361290855580771</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.74841718657868</v>
+        <v>-10.94108755108027</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.152361305229708</v>
+        <v>-6.617385196501361</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.81097233467602</v>
+        <v>-2.217600524866535</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.778651144148407</v>
+        <v>-2.469126503330909</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.71480855688573</v>
+        <v>21.4408012792743</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.21246356596264</v>
+        <v>16.36068003839631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.99328864040464</v>
+        <v>13.14421405732423</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.62496569273048</v>
+        <v>19.32817004386853</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>29.79311642571973</v>
+        <v>29.84423724929953</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.70878246494793</v>
+        <v>18.02147633634484</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.78225332633677</v>
+        <v>14.61478238255237</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.03372457382565</v>
+        <v>17.76137593253121</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.42250434338241</v>
+        <v>12.22793667650981</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.757217129371161</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8050794366132307</v>
+        <v>0.8050794366132302</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.01523133117032899</v>
@@ -760,7 +760,7 @@
         <v>0.7252274508212837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3905993154552323</v>
+        <v>0.3905993154552325</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3681008615552742</v>
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8053937462104617</v>
+        <v>-0.7652612158882617</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6180489233682466</v>
+        <v>-0.6137018316350575</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3270341373397926</v>
+        <v>-0.4499545668385477</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="n">
-        <v>-0.5614460084695345</v>
+        <v>-0.5991445643198643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4753529877203204</v>
+        <v>-0.4782514259733004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5639258681436424</v>
+        <v>-0.5339650835873462</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2541420980156368</v>
+        <v>-0.2294747812994223</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2118623001282224</v>
+        <v>-0.1807282128138664</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6.417623806916794</v>
+        <v>9.952339047992115</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.860892854544072</v>
+        <v>6.535219070392235</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.641856633771402</v>
+        <v>5.193988392880866</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>7.477218287905787</v>
+        <v>6.414022770483314</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.433926867117972</v>
+        <v>5.543819204934632</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.113726523299774</v>
+        <v>3.067060393696162</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.264642563797451</v>
+        <v>4.054429597855356</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.815205058508346</v>
+        <v>2.826722955337623</v>
       </c>
     </row>
     <row r="10">
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.76972558688479</v>
+        <v>-11.10035058228856</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.533835097648231</v>
+        <v>-8.723888397504668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.231025986004566</v>
+        <v>-9.14020570983771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-18.68939989934848</v>
+        <v>-20.46852728162149</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.964291686376312</v>
+        <v>-14.84066313076445</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-20.80089533362278</v>
+        <v>-22.50775875328773</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-7.616735826297832</v>
+        <v>-7.954782842586234</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.063462549996905</v>
+        <v>-4.273946570487375</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.28179969960527</v>
+        <v>-5.302934342465131</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.88988004870322</v>
+        <v>15.40106002140151</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.18562611518565</v>
+        <v>17.98710412008119</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.68442599882804</v>
+        <v>13.45680427989716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43.63549946093049</v>
+        <v>41.87304560211179</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>58.45781763395858</v>
+        <v>58.75134678585299</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>24.82858381973618</v>
+        <v>25.10794136424347</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.00396443566448</v>
+        <v>16.23356553975421</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>23.18808547306219</v>
+        <v>22.46706090554121</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.87169111528861</v>
+        <v>14.41193922150889</v>
       </c>
     </row>
     <row r="13">
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7534759582983696</v>
+        <v>-0.7375409420870459</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5484406913001282</v>
+        <v>-0.5617423638157905</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5218437112221297</v>
+        <v>-0.54914984482444</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6100204629063075</v>
+        <v>-0.6145201143064906</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4280224149848663</v>
+        <v>-0.5043029866332501</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4833892088617619</v>
+        <v>-0.498896526041062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4458478357972549</v>
+        <v>-0.4994714751792002</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2480462163750879</v>
+        <v>-0.2998674674161202</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2701784580315468</v>
+        <v>-0.2636686930714227</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.550925878936376</v>
+        <v>4.113575691198959</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.975804170564972</v>
+        <v>4.364118895518576</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.666144954044812</v>
+        <v>3.363739260027753</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9.089693599708889</v>
+        <v>9.175688658752353</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8.165210721845371</v>
+        <v>8.470227278749082</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.833674934249524</v>
+        <v>3.64582862520145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.884804168563385</v>
+        <v>2.285731432559532</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.197381965458713</v>
+        <v>3.089201706843171</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.836689146023677</v>
+        <v>2.120859300362178</v>
       </c>
     </row>
     <row r="16">
@@ -1088,7 +1088,7 @@
         <v>1.195385102516688</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>13.73109209991695</v>
+        <v>13.73109209991694</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.00388752259338</v>
+        <v>-11.1096121991567</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.64169305459696</v>
+        <v>-10.36919173743703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.943785422945057</v>
+        <v>-2.229529947618203</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-14.20650734675994</v>
+        <v>-12.67475655985208</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-17.66916482985276</v>
+        <v>-17.5249670711491</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7808523021217099</v>
+        <v>0.8750365379531019</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.926724630325992</v>
+        <v>-7.964924982910797</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.697152839986487</v>
+        <v>-7.492238977581757</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.054838497638485</v>
+        <v>4.327078977378875</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.491507929182184</v>
+        <v>10.25106741378515</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.685710491274509</v>
+        <v>8.042524254999215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.36117379738644</v>
+        <v>18.16087602655993</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25.38698971981278</v>
+        <v>25.35918791474191</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>24.3066370272441</v>
+        <v>27.66238229291579</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>38.60860191382494</v>
+        <v>38.8329786462611</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.49612272952808</v>
+        <v>10.90903972337448</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.693398781403166</v>
+        <v>10.33776459490768</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>22.00227463183945</v>
+        <v>22.58362225328741</v>
       </c>
     </row>
     <row r="19">
@@ -1193,7 +1193,7 @@
         <v>0.08147126043059785</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9358401557068432</v>
+        <v>0.9358401557068429</v>
       </c>
     </row>
     <row r="20">
@@ -1204,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5811243769085668</v>
+        <v>-0.5960614901158408</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5583956561075298</v>
+        <v>-0.5446796504309275</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1981370116807808</v>
+        <v>-0.1467781356786907</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4492647260299838</v>
+        <v>-0.4576605901001367</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5488197736810208</v>
+        <v>-0.5877780250147472</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.002301500155265352</v>
+        <v>0.00158401483416366</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3570203398378736</v>
+        <v>-0.404368334511191</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4213652856827396</v>
+        <v>-0.367904085291736</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1731633239831215</v>
+        <v>0.2087510768006536</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1239,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.091428711826204</v>
+        <v>1.411970149800256</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9732048190087804</v>
+        <v>1.015173839815197</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.108054265178687</v>
+        <v>2.179631259268847</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.010474190781737</v>
+        <v>4.582329355948198</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.592759242792216</v>
+        <v>4.743805868097255</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.325745827464204</v>
+        <v>7.556879500303785</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.167680255983004</v>
+        <v>1.17622167102203</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.060619735401563</v>
+        <v>1.114778328140586</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.500939523568491</v>
+        <v>2.545501234217738</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1284,7 @@
         <v>3.071333977006205</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10.41394629625823</v>
+        <v>10.41394629625822</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>19.54695361019347</v>
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.264776801968467</v>
+        <v>3.1063200123405</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.966443404701028</v>
+        <v>-2.706003331154224</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.15870673204742</v>
+        <v>4.243636619932523</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.519897632466056</v>
+        <v>4.41819679866575</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7912272253863565</v>
+        <v>-0.5601514569514032</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.832669164911971</v>
+        <v>3.896484470682805</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.631142871538946</v>
+        <v>5.6188162999862</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03009578040466264</v>
+        <v>-0.5150635726849161</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.55053927253232</v>
+        <v>6.341794283638551</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.11469081508898</v>
+        <v>17.92058171166505</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.807693404693929</v>
+        <v>9.957961345714743</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.9516077452174</v>
+        <v>15.74360845631744</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34.50419773016345</v>
+        <v>33.63167550726656</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>24.84918176723405</v>
+        <v>25.69402202889922</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.23751052109798</v>
+        <v>23.52043038156557</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.55957118892956</v>
+        <v>18.68881709750319</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.43314670302437</v>
+        <v>11.71946890470179</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>16.58289475598142</v>
+        <v>16.32199914107825</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1389,7 @@
         <v>0.2177424151097846</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7382973764322348</v>
+        <v>0.7382973764322344</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>1.280593861558174</v>
@@ -1407,7 +1407,7 @@
         <v>0.4139563783239147</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8131798884304969</v>
+        <v>0.8131798884304974</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1722602347400057</v>
+        <v>0.179737781001901</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.227265206212178</v>
+        <v>-0.1745958315887582</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.21380126234808</v>
+        <v>0.2425322765673633</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.210613841834665</v>
+        <v>0.1764771079107877</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06122346373010346</v>
+        <v>-0.08470326255606285</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1448519516748451</v>
+        <v>0.1668348420549257</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3305519225597801</v>
+        <v>0.3150287815351915</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0005614339395085492</v>
+        <v>-0.0165330886003513</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3797543229196077</v>
+        <v>0.3374916965328397</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.548572322487094</v>
+        <v>1.587771532901261</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8116962892490888</v>
+        <v>0.8700972298673941</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.516511737604211</v>
+        <v>1.449876260174294</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.617883686203919</v>
+        <v>3.313173132123531</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.632132961562683</v>
+        <v>2.840405908602293</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.802723855375659</v>
+        <v>2.824018839349687</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.543857954867705</v>
+        <v>1.570180245233686</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.022955985288117</v>
+        <v>0.96459948138011</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.455010389750732</v>
+        <v>1.376582690339361</v>
       </c>
     </row>
     <row r="28">
@@ -1498,7 +1498,7 @@
         <v>3.322910572308873</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.579805113644706</v>
+        <v>5.579805113644717</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>10.90789723782961</v>
@@ -1507,7 +1507,7 @@
         <v>2.232020992988809</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>18.74667849622819</v>
+        <v>18.7466784962282</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.320188038245148</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-12.82569595814089</v>
+        <v>-13.92672715884654</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.275258821585766</v>
+        <v>-9.181398926521926</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.357446574082484</v>
+        <v>-7.783337231659075</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.959481302424</v>
+        <v>-1.164199892542598</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.585820487979106</v>
+        <v>-9.9353055061114</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.165983210280544</v>
+        <v>7.371863437287629</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.393173713738882</v>
+        <v>-1.388002685620256</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.748464660159942</v>
+        <v>-7.852607169068398</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.28056558656899</v>
+        <v>6.655508124960829</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.07710972742342</v>
+        <v>12.77889304123954</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.07924219007843</v>
+        <v>14.55798195021983</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.82839955244171</v>
+        <v>16.66898270750382</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22.00780551765299</v>
+        <v>21.82185123007897</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.57210625888026</v>
+        <v>13.41383266775126</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>29.09002907274696</v>
+        <v>28.92172372845941</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>16.50698553659704</v>
+        <v>16.66049341113164</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.95525410843761</v>
+        <v>10.61746169450121</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>21.715473979279</v>
+        <v>22.82320466130983</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1603,7 @@
         <v>0.1645563719783986</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2763217564443503</v>
+        <v>0.2763217564443509</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.393847980269067</v>
@@ -1612,7 +1612,7 @@
         <v>0.08059087290977388</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6768803648870931</v>
+        <v>0.6768803648870934</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.293360745720773</v>
@@ -1632,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.454647160766628</v>
+        <v>-0.4946520380430617</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3259582496396307</v>
+        <v>-0.3318382527633844</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2885393895748042</v>
+        <v>-0.2650633000554928</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03881912942646503</v>
+        <v>-0.03462461781984406</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2862958638207988</v>
+        <v>-0.2999004835638538</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2132900330839259</v>
+        <v>0.1938535525173543</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07608080789082083</v>
+        <v>-0.04835845230873186</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2174151560151088</v>
+        <v>-0.2468902124819338</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.163407773979947</v>
+        <v>0.1914600359865924</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.09067285861395</v>
+        <v>1.07343537615974</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.281945735471149</v>
+        <v>1.29671733116692</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.428871043878908</v>
+        <v>1.435278392857608</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.203898728585286</v>
+        <v>1.101376464638457</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7036169714255484</v>
+        <v>0.6619962061797956</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.494570510678182</v>
+        <v>1.46676266891795</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9110520918264909</v>
+        <v>0.9002169845809291</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5373035976072182</v>
+        <v>0.5749941680656473</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.145825475464574</v>
+        <v>1.200658810996331</v>
       </c>
     </row>
     <row r="34">
@@ -1728,7 +1728,7 @@
         <v>12.42575379978042</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>19.86067785579561</v>
+        <v>19.86067785579563</v>
       </c>
     </row>
     <row r="35">
@@ -1741,25 +1741,25 @@
       <c r="C35" s="5" t="inlineStr"/>
       <c r="D35" s="5" t="inlineStr"/>
       <c r="E35" s="5" t="n">
-        <v>17.53445647139325</v>
+        <v>18.92256228645394</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.129094218043992</v>
+        <v>3.068579011868576</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>6.032666794362403</v>
+        <v>5.340650502296016</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>13.08089431670966</v>
+        <v>13.32321743460503</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.087810664004307</v>
+        <v>2.659776967861105</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>5.891926080919649</v>
+        <v>6.003730003125487</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>13.94410543031549</v>
+        <v>14.23857522062158</v>
       </c>
     </row>
     <row r="36">
@@ -1775,22 +1775,22 @@
         <v>100</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15.41453162382815</v>
+        <v>15.21724939412293</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>18.59649013770519</v>
+        <v>18.43017414431394</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>25.18389707600974</v>
+        <v>24.82248816372876</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>14.92297155699535</v>
+        <v>15.08042167000017</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>18.26569934937385</v>
+        <v>18.86361821139158</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>25.03624413216211</v>
+        <v>25.12369034836243</v>
       </c>
     </row>
     <row r="37">
@@ -1823,7 +1823,7 @@
         <v>0.6155210924494081</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.9838168635532686</v>
+        <v>0.9838168635532691</v>
       </c>
     </row>
     <row r="38">
@@ -1837,22 +1837,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.1395726668106062</v>
+        <v>0.1235531596375875</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2513790918122308</v>
+        <v>0.2309330630372097</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5298916323996169</v>
+        <v>0.5672626775569292</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1427077981352241</v>
+        <v>0.1179761105925812</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2404574655542209</v>
+        <v>0.2554573258033833</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.604536279067358</v>
+        <v>0.5865219774205734</v>
       </c>
     </row>
     <row r="39">
@@ -1866,22 +1866,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.8963022445489975</v>
+        <v>0.8494983811337053</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.030364324536286</v>
+        <v>1.050239529947866</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.450233371399477</v>
+        <v>1.41963748980811</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8835883893609513</v>
+        <v>0.8662186489945711</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.016126981742343</v>
+        <v>1.094618601098996</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.476907411986575</v>
+        <v>1.445582363539098</v>
       </c>
     </row>
     <row r="40">
@@ -1902,7 +1902,7 @@
         <v>3.656029931781646</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7.58697861060234</v>
+        <v>7.586978610602343</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>11.08347444857959</v>
@@ -1931,31 +1931,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.6477390753327499</v>
+        <v>0.8726165743497627</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.609780410228607</v>
+        <v>-0.2169957098015927</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.865760574040877</v>
+        <v>3.427811690007491</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6.271278980884048</v>
+        <v>6.543487947158712</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>5.484848604581424</v>
+        <v>5.385439247106745</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>12.83699830570674</v>
+        <v>12.82861585015617</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.359211607480371</v>
+        <v>5.323816012119408</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>4.355703978274265</v>
+        <v>4.249895609261127</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>9.679082454099158</v>
+        <v>9.879752995173423</v>
       </c>
     </row>
     <row r="42">
@@ -1966,31 +1966,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.931908163939523</v>
+        <v>9.942788549400422</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.766585556554497</v>
+        <v>7.871336752900642</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11.42153845932823</v>
+        <v>11.37252153516732</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16.08402122351694</v>
+        <v>16.05305991312154</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>15.57725064290437</v>
+        <v>15.14132150337462</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>20.96039061488609</v>
+        <v>20.58980078134767</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>12.20508924946706</v>
+        <v>12.09860871203903</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>11.3671208802396</v>
+        <v>10.84429899483351</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>15.66863458090403</v>
+        <v>15.62692052119308</v>
       </c>
     </row>
     <row r="43">
@@ -2007,7 +2007,7 @@
         <v>0.2736265222951536</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.5678286585950255</v>
+        <v>0.5678286585950256</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.5439872187411261</v>
@@ -2036,31 +2036,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.03045011564084745</v>
+        <v>0.07046577476214796</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.04079059853394672</v>
+        <v>-0.01070522241165046</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2313519494764935</v>
+        <v>0.206390132997353</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2658481081966281</v>
+        <v>0.2881527289363569</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2389381398304719</v>
+        <v>0.2369468265669813</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5549179465868952</v>
+        <v>0.5578080576886805</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2853847670753418</v>
+        <v>0.2825169967448766</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2293761633525817</v>
+        <v>0.2210855194324356</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5094698012203639</v>
+        <v>0.5167183906348601</v>
       </c>
     </row>
     <row r="45">
@@ -2071,31 +2071,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8652370461804824</v>
+        <v>0.9203765980392907</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.703802356974449</v>
+        <v>0.7234390657160472</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.004050638280435</v>
+        <v>1.042475236099524</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8682556465953779</v>
+        <v>0.9073181531464586</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8444486215330251</v>
+        <v>0.867619094145285</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.18342941809164</v>
+        <v>1.161531339940588</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.777992683045302</v>
+        <v>0.773002149428983</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7361927503898053</v>
+        <v>0.6839827783050957</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.008367173166346</v>
+        <v>1.003039529488388</v>
       </c>
     </row>
     <row r="46">
